--- a/plano_de_testes.xlsx
+++ b/plano_de_testes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
   <si>
     <t>Nome da Suite de Teste</t>
   </si>
@@ -82,7 +82,7 @@
   </si>
   <si>
     <t>- Status code: 200
-- String 'OK' no status code do response;
+- String 'OK' no status code do response
 - Tempo de execução &lt; 2 seg</t>
   </si>
   <si>
@@ -99,8 +99,8 @@
   </si>
   <si>
     <t>- Status code: 200
-- String 'OK' no response code;
-- Tempo de execução &lt; 2 seg;</t>
+- String 'OK' no response code
+- Tempo de execução &lt; 2 seg</t>
   </si>
   <si>
     <t>TC003</t>
@@ -116,7 +116,7 @@
   </si>
   <si>
     <t>- Status code: 200, 201 ou 202
-- String 'Created' no status code do response;
+- String 'Created' no status code do response
 - Tempo de execução &lt; 2 seg</t>
   </si>
   <si>
@@ -179,11 +179,6 @@
   </si>
   <si>
     <t>Enviar requisição POST assincrona para criar nova lista de Lead</t>
-  </si>
-  <si>
-    <t>- Status code: 200, 201 ou 202
-- String 'Created' no status code do response;
-- Tempo de execução &lt; 2 seg;</t>
   </si>
   <si>
     <t>TC009</t>
@@ -414,8 +409,8 @@
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf quotePrefix="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -430,8 +425,8 @@
     <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf quotePrefix="1" borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -451,7 +446,7 @@
     <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf quotePrefix="1" borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1017,15 +1012,15 @@
         <v>51</v>
       </c>
       <c r="H13" s="29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="17" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="17" t="s">
+      <c r="B14" s="24" t="s">
         <v>53</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>54</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>16</v>
@@ -1040,7 +1035,7 @@
         <v>47</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H14" s="29" t="s">
         <v>36</v>
@@ -1048,10 +1043,10 @@
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>16</v>
@@ -1066,7 +1061,7 @@
         <v>47</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H15" s="29" t="s">
         <v>36</v>
@@ -1074,10 +1069,10 @@
     </row>
     <row r="16">
       <c r="A16" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="25" t="s">
         <v>16</v>
@@ -1089,10 +1084,10 @@
         <v>18</v>
       </c>
       <c r="F16" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="29" t="s">
         <v>61</v>
-      </c>
-      <c r="G16" s="36" t="s">
-        <v>62</v>
       </c>
       <c r="H16" s="29" t="s">
         <v>21</v>
@@ -1100,10 +1095,10 @@
     </row>
     <row r="17">
       <c r="A17" s="33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>16</v>
@@ -1115,12 +1110,12 @@
         <v>18</v>
       </c>
       <c r="F17" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="H17" s="29" t="s">
+      <c r="H17" s="36" t="s">
         <v>26</v>
       </c>
     </row>
